--- a/A2_results_step_2_3.xlsx
+++ b/A2_results_step_2_3.xlsx
@@ -461,10 +461,10 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>137.83333333333383</v>
+        <v>132.1996639632601</v>
       </c>
       <c r="C2">
-        <v>225.66666666666694</v>
+        <v>214.3993279265201</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -478,16 +478,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>-137.83333333333383</v>
+        <v>-132.1996639632601</v>
       </c>
       <c r="B3">
         <v>0.0</v>
       </c>
       <c r="C3">
-        <v>87.83333333333312</v>
+        <v>82.19966396326</v>
       </c>
       <c r="D3">
-        <v>400.00000000000006</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -498,10 +498,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>-225.66666666666694</v>
+        <v>-214.3993279265201</v>
       </c>
       <c r="B4">
-        <v>-87.83333333333312</v>
+        <v>-82.19966396326</v>
       </c>
       <c r="C4">
         <v>0.0</v>
@@ -513,7 +513,7 @@
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>268.5000000000001</v>
+        <v>251.60025202755511</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -521,7 +521,7 @@
         <v>-0.0</v>
       </c>
       <c r="B5">
-        <v>-400.00000000000006</v>
+        <v>-400.0000000000002</v>
       </c>
       <c r="C5">
         <v>-0.0</v>
@@ -530,10 +530,10 @@
         <v>0.0</v>
       </c>
       <c r="E5">
-        <v>128.16666666666652</v>
+        <v>66.20008400918498</v>
       </c>
       <c r="F5">
-        <v>-43.66666666666679</v>
+        <v>-66.20008400918509</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -547,13 +547,13 @@
         <v>-0.0</v>
       </c>
       <c r="D6">
-        <v>-128.16666666666652</v>
+        <v>-66.20008400918498</v>
       </c>
       <c r="E6">
         <v>0.0</v>
       </c>
       <c r="F6">
-        <v>-171.83333333333331</v>
+        <v>-132.40016801837007</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -564,13 +564,13 @@
         <v>-0.0</v>
       </c>
       <c r="C7">
-        <v>-268.5000000000001</v>
+        <v>-251.60025202755511</v>
       </c>
       <c r="D7">
-        <v>43.66666666666679</v>
+        <v>66.20008400918509</v>
       </c>
       <c r="E7">
-        <v>171.83333333333331</v>
+        <v>132.40016801837007</v>
       </c>
       <c r="F7">
         <v>0.0</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>-192.0285714331174</v>
+        <v>44.585060259922834</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -606,12 +606,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>-708.571428593984</v>
+        <v>852.4999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>-5.628571440038318</v>
+        <v>669.7999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -649,13 +649,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>26.000000000000764</v>
+        <v>9.098991889780166</v>
       </c>
       <c r="B2">
         <v>0.0</v>
       </c>
       <c r="C2">
-        <v>155.0</v>
+        <v>154.9999999999999</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -705,10 +705,10 @@
         <v>337.5</v>
       </c>
       <c r="B2">
-        <v>349.9999999999993</v>
+        <v>350.0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0.0012601377750627307</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -764,10 +764,10 @@
         <v>200.0</v>
       </c>
       <c r="D2">
-        <v>315.50000000000045</v>
+        <v>400.0</v>
       </c>
       <c r="E2">
-        <v>300.0</v>
+        <v>198.60025202755514</v>
       </c>
       <c r="F2">
         <v>250.0</v>
@@ -793,32 +793,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>7.814285714111086</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>4.999999999796273</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>10.628571428425909</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>24.7</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>21.885714285685182</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>19.071428571370365</v>
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -844,15 +844,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>7.814285714111086</v>
+        <v>20.1</v>
       </c>
       <c r="B2">
-        <v>26.000000000000764</v>
+        <v>9.098991889780166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>100004.9999999998</v>
+        <v>100019.5</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -860,15 +860,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>10.628571428425909</v>
+        <v>20.7</v>
       </c>
       <c r="B4">
-        <v>155.0</v>
+        <v>154.9999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>19.071428571370365</v>
+        <v>22.5</v>
       </c>
       <c r="B5">
         <v>197.0</v>
@@ -908,7 +908,7 @@
         <v>5.0</v>
       </c>
       <c r="B3">
-        <v>349.9999999999993</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -916,7 +916,7 @@
         <v>20.1</v>
       </c>
       <c r="B4">
-        <v>0.0</v>
+        <v>0.0012601377750627307</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -961,7 +961,7 @@
         <v>24.7</v>
       </c>
       <c r="B3">
-        <v>315.50000000000045</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -969,7 +969,7 @@
         <v>23.1</v>
       </c>
       <c r="B4">
-        <v>300.0</v>
+        <v>198.60025202755514</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1003,10 +1003,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>25647.850000000013</v>
+        <v>25392.665821836523</v>
       </c>
       <c r="B2">
-        <v>-906.2285714671398</v>
+        <v>1566.8850602599218</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step_2_3.xlsx
+++ b/A2_results_step_2_3.xlsx
@@ -461,10 +461,10 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>132.1996639632601</v>
+        <v>132.19966396325998</v>
       </c>
       <c r="C2">
-        <v>214.3993279265201</v>
+        <v>214.39932792652</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>-132.1996639632601</v>
+        <v>-132.19966396325998</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -487,7 +487,7 @@
         <v>82.19966396326</v>
       </c>
       <c r="D3">
-        <v>400.0000000000002</v>
+        <v>400.0000000000001</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>-214.3993279265201</v>
+        <v>-214.39932792652</v>
       </c>
       <c r="B4">
         <v>-82.19966396326</v>
@@ -513,7 +513,7 @@
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>251.60025202755511</v>
+        <v>251.600252027555</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -521,7 +521,7 @@
         <v>-0.0</v>
       </c>
       <c r="B5">
-        <v>-400.0000000000002</v>
+        <v>-400.0000000000001</v>
       </c>
       <c r="C5">
         <v>-0.0</v>
@@ -564,7 +564,7 @@
         <v>-0.0</v>
       </c>
       <c r="C7">
-        <v>-251.60025202755511</v>
+        <v>-251.600252027555</v>
       </c>
       <c r="D7">
         <v>66.20008400918509</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>44.585060259922834</v>
+        <v>44.58506025992172</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -649,7 +649,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>9.098991889780166</v>
+        <v>9.098991889779938</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -847,7 +847,7 @@
         <v>20.1</v>
       </c>
       <c r="B2">
-        <v>9.098991889780166</v>
+        <v>9.098991889779938</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>25392.665821836523</v>
       </c>
       <c r="B2">
-        <v>1566.8850602599218</v>
+        <v>1566.885060259921</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step_2_3.xlsx
+++ b/A2_results_step_2_3.xlsx
@@ -461,10 +461,10 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>132.19966396325998</v>
+        <v>132.1996639632601</v>
       </c>
       <c r="C2">
-        <v>214.39932792652</v>
+        <v>214.3993279265201</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>-132.19966396325998</v>
+        <v>-132.1996639632601</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -487,7 +487,7 @@
         <v>82.19966396326</v>
       </c>
       <c r="D3">
-        <v>400.0000000000001</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>-214.39932792652</v>
+        <v>-214.3993279265201</v>
       </c>
       <c r="B4">
         <v>-82.19966396326</v>
@@ -513,7 +513,7 @@
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>251.600252027555</v>
+        <v>251.60025202755511</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -521,7 +521,7 @@
         <v>-0.0</v>
       </c>
       <c r="B5">
-        <v>-400.0000000000001</v>
+        <v>-400.0000000000002</v>
       </c>
       <c r="C5">
         <v>-0.0</v>
@@ -564,7 +564,7 @@
         <v>-0.0</v>
       </c>
       <c r="C7">
-        <v>-251.600252027555</v>
+        <v>-251.60025202755511</v>
       </c>
       <c r="D7">
         <v>66.20008400918509</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>44.58506025992172</v>
+        <v>44.585060259922834</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -649,7 +649,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>9.098991889779938</v>
+        <v>9.098991889780166</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -847,7 +847,7 @@
         <v>20.1</v>
       </c>
       <c r="B2">
-        <v>9.098991889779938</v>
+        <v>9.098991889780166</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>25392.665821836523</v>
       </c>
       <c r="B2">
-        <v>1566.885060259921</v>
+        <v>1566.8850602599218</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step_2_3.xlsx
+++ b/A2_results_step_2_3.xlsx
@@ -767,7 +767,7 @@
         <v>400.0</v>
       </c>
       <c r="E2">
-        <v>200.8750000000001</v>
+        <v>200.87500000000006</v>
       </c>
       <c r="F2">
         <v>250.0</v>
@@ -793,12 +793,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>19.349999999999998</v>
+        <v>19.34999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>18.59999999999999</v>
+        <v>18.599999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -844,7 +844,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>19.349999999999998</v>
+        <v>19.34999999999999</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>18.59999999999999</v>
+        <v>18.599999999999994</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -969,7 +969,7 @@
         <v>23.1</v>
       </c>
       <c r="B4">
-        <v>200.8750000000001</v>
+        <v>200.87500000000006</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/A2_results_step_2_3.xlsx
+++ b/A2_results_step_2_3.xlsx
@@ -461,10 +461,10 @@
         <v>0.0</v>
       </c>
       <c r="B2">
-        <v>132.1996639632601</v>
+        <v>129.16666666666666</v>
       </c>
       <c r="C2">
-        <v>214.3993279265201</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -478,16 +478,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>-132.1996639632601</v>
+        <v>-129.16666666666666</v>
       </c>
       <c r="B3">
         <v>0.0</v>
       </c>
       <c r="C3">
-        <v>82.19966396326</v>
+        <v>79.1666666666667</v>
       </c>
       <c r="D3">
-        <v>400.0000000000002</v>
+        <v>400.00000000000006</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -498,10 +498,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>-214.3993279265201</v>
+        <v>-208.33333333333334</v>
       </c>
       <c r="B4">
-        <v>-82.19966396326</v>
+        <v>-79.1666666666667</v>
       </c>
       <c r="C4">
         <v>0.0</v>
@@ -513,7 +513,7 @@
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>251.60025202755511</v>
+        <v>253.87499999999994</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -521,7 +521,7 @@
         <v>-0.0</v>
       </c>
       <c r="B5">
-        <v>-400.0000000000002</v>
+        <v>-400.00000000000006</v>
       </c>
       <c r="C5">
         <v>-0.0</v>
@@ -530,10 +530,10 @@
         <v>0.0</v>
       </c>
       <c r="E5">
-        <v>66.20008400918498</v>
+        <v>66.95833333333336</v>
       </c>
       <c r="F5">
-        <v>-66.20008400918509</v>
+        <v>-66.95833333333336</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -547,13 +547,13 @@
         <v>-0.0</v>
       </c>
       <c r="D6">
-        <v>-66.20008400918498</v>
+        <v>-66.95833333333336</v>
       </c>
       <c r="E6">
         <v>0.0</v>
       </c>
       <c r="F6">
-        <v>-132.40016801837007</v>
+        <v>-133.9166666666667</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -564,13 +564,13 @@
         <v>-0.0</v>
       </c>
       <c r="C7">
-        <v>-251.60025202755511</v>
+        <v>-253.87499999999994</v>
       </c>
       <c r="D7">
-        <v>66.20008400918509</v>
+        <v>66.95833333333336</v>
       </c>
       <c r="E7">
-        <v>132.40016801837007</v>
+        <v>133.9166666666667</v>
       </c>
       <c r="F7">
         <v>0.0</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>44.585060259922834</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -606,12 +606,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>852.4999999999993</v>
+        <v>178.23749999999953</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>669.7999999999997</v>
+        <v>640.2499999999993</v>
       </c>
     </row>
   </sheetData>
@@ -649,13 +649,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>9.098991889780166</v>
+        <v>0.0</v>
       </c>
       <c r="B2">
         <v>0.0</v>
       </c>
       <c r="C2">
-        <v>154.9999999999999</v>
+        <v>36.37499999999994</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -708,7 +708,7 @@
         <v>350.0</v>
       </c>
       <c r="C2">
-        <v>0.0012601377750627307</v>
+        <v>130.0</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -767,7 +767,7 @@
         <v>400.0</v>
       </c>
       <c r="E2">
-        <v>198.60025202755514</v>
+        <v>200.8750000000001</v>
       </c>
       <c r="F2">
         <v>250.0</v>
@@ -793,22 +793,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>20.1</v>
+        <v>19.349999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>19.5</v>
+        <v>18.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>20.7</v>
+        <v>20.099999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>23.7</v>
+        <v>23.850000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -818,7 +818,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>22.5</v>
+        <v>22.349999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -844,15 +844,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>20.1</v>
+        <v>19.349999999999998</v>
       </c>
       <c r="B2">
-        <v>9.098991889780166</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>100019.5</v>
+        <v>18.59999999999999</v>
       </c>
       <c r="B3">
         <v>0.0</v>
@@ -860,15 +860,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>20.7</v>
+        <v>20.099999999999994</v>
       </c>
       <c r="B4">
-        <v>154.9999999999999</v>
+        <v>36.37499999999994</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>22.5</v>
+        <v>22.349999999999998</v>
       </c>
       <c r="B5">
         <v>197.0</v>
@@ -916,7 +916,7 @@
         <v>20.1</v>
       </c>
       <c r="B4">
-        <v>0.0012601377750627307</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -969,7 +969,7 @@
         <v>23.1</v>
       </c>
       <c r="B4">
-        <v>198.60025202755514</v>
+        <v>200.8750000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1003,10 +1003,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>25392.665821836523</v>
+        <v>15948.125000000004</v>
       </c>
       <c r="B2">
-        <v>1566.8850602599218</v>
+        <v>818.4874999999988</v>
       </c>
     </row>
   </sheetData>
